--- a/biology/Botanique/Phymosia_umbellata/Phymosia_umbellata.xlsx
+++ b/biology/Botanique/Phymosia_umbellata/Phymosia_umbellata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phymosia umbellata est une plante de la famille des Malvaceae originaire du Mexique.
 </t>
@@ -511,7 +523,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonio José Cavanilles avait décrit cette espèce en 1791 dans le genre Malva : Malva umbellata Cav.
 George Don la transfère en 1831 dans le genre Sphaeralcea : Sphaeralcea umbellata (Cav.) G.Don
@@ -545,12 +559,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un petit arbuste au feuillage semi-persistant, pouvant atteindre 3 ou 4 mètres de hauteur.
 Les feuilles, assez proches des feuilles de vigne, sont veloutées.
 En été, les fleurs rouges s'épanouissent successivement à l'aisselle des feuilles.
-Cette espèce compte 34 chromosomes[1].
+Cette espèce compte 34 chromosomes.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Phymosia umbellata est originaire du Mexique.
 Cette plante s'est maintenant répandue dans l'ensemble des régions tempérées. Elle exige un substrat relativement riche, mais moyennement ensoleillé.
@@ -611,7 +629,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce commence à être cultivée comme plante ornementale en France dans les régions les moins froides.
 			Floraison
